--- a/Encoding/TrialRows.xlsx
+++ b/Encoding/TrialRows.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/em5456ol-s_lu_se/Documents/Jobb/Experiments/Faces_task/Gallerymemory/Encoding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/em5456ol-s_lu_se/Documents/Jobb/Experiments/FacesNamesProffessions/Encoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC10489C71584F105BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E3629B4-A8D2-486D-B184-09247CD873BE}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC10489C71584F105BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{652AEF1A-8ECA-4FE4-A34F-D39C6BFA27B9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>6:12</t>
-  </si>
-  <si>
-    <t>12:18</t>
-  </si>
-  <si>
-    <t>18:24</t>
-  </si>
-  <si>
-    <t>24:30</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TrialRows_Name</t>
   </si>
@@ -48,19 +33,22 @@
     <t>TrialRows_Proffession</t>
   </si>
   <si>
-    <t>30:36</t>
-  </si>
-  <si>
-    <t>36:42</t>
-  </si>
-  <si>
-    <t>42:48</t>
-  </si>
-  <si>
-    <t>48:54</t>
-  </si>
-  <si>
-    <t>54:60</t>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>5:10</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>30:35</t>
+  </si>
+  <si>
+    <t>35:40</t>
+  </si>
+  <si>
+    <t>40:45</t>
   </si>
 </sst>
 </file>
@@ -385,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,50 +387,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
